--- a/Templates.xlsx
+++ b/Templates.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Types" sheetId="1" r:id="rId1"/>
+    <sheet name="Reference" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="340">
   <si>
     <t>Topic</t>
   </si>
@@ -306,11 +306,6 @@
   </si>
   <si>
     <t>130 surrounded regions</t>
-  </si>
-  <si>
-    <t>Find number of components:
-305 Number of island II
-323 number of connected components</t>
   </si>
   <si>
     <t>Find size of components:
@@ -564,9 +559,6 @@
     <t>top down, in place</t>
   </si>
   <si>
-    <t>Quick selection</t>
-  </si>
-  <si>
     <t>4
 324 wiggle sort II</t>
   </si>
@@ -576,9 +568,6 @@
 k-th …</t>
   </si>
   <si>
-    <t>merge sort</t>
-  </si>
-  <si>
     <t>bottom up</t>
   </si>
   <si>
@@ -589,16 +578,10 @@
     <t>148 sort list</t>
   </si>
   <si>
-    <t>bucket sort</t>
-  </si>
-  <si>
     <t>good for searching nums[i]-nums[j]</t>
   </si>
   <si>
     <t>164 max gap</t>
-  </si>
-  <si>
-    <t>insertion sort</t>
   </si>
   <si>
     <t>147 insert sort list</t>
@@ -615,9 +598,6 @@
 135 candy</t>
   </si>
   <si>
-    <t>count sort</t>
-  </si>
-  <si>
     <t>when (max - min) is close to len(nums)</t>
   </si>
   <si>
@@ -625,9 +605,6 @@
 347 top k frequent elements</t>
   </si>
   <si>
-    <t>special sort</t>
-  </si>
-  <si>
     <t>179 largest number</t>
   </si>
   <si>
@@ -636,10 +613,6 @@
   </si>
   <si>
     <t>pancake sort</t>
-  </si>
-  <si>
-    <t>flip(arr, i)
-flip(arr, I, j)</t>
   </si>
   <si>
     <t>topological sort</t>
@@ -663,11 +636,6 @@
 368 largest divisible subset
 354 Russian doll
 377 combination sum IV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62, 63, 64, 74
-120, 121
-</t>
   </si>
   <si>
     <t>152
@@ -773,17 +741,10 @@
     <t>mostly in a 2D array</t>
   </si>
   <si>
-    <t>139 word break
-279 perfect squares</t>
-  </si>
-  <si>
     <t>499 the maze III</t>
   </si>
   <si>
     <t>under a constraint</t>
-  </si>
-  <si>
-    <t>linear scan</t>
   </si>
   <si>
     <t>31
@@ -800,9 +761,6 @@
 302  352 374 392</t>
   </si>
   <si>
-    <t>binary serach (left, right)</t>
-  </si>
-  <si>
     <t>linear scan (end, cur)</t>
   </si>
   <si>
@@ -819,29 +777,6 @@
     <t>289 game of life</t>
   </si>
   <si>
-    <t>Sliding window</t>
-  </si>
-  <si>
-    <t>1. adjust right
-2. adjust left
-3. update res</t>
-  </si>
-  <si>
-    <t>hashmap: 3, 30, 76, 159, 219, 340, 992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buckets: 220
-</t>
-  </si>
-  <si>
-    <t>hashset
-monotonic stack/queue
-a single variable</t>
-  </si>
-  <si>
-    <t>stack</t>
-  </si>
-  <si>
     <t>20, 150, 71, 165</t>
   </si>
   <si>
@@ -862,9 +797,6 @@
     <t>394 decode string</t>
   </si>
   <si>
-    <t>heap</t>
-  </si>
-  <si>
     <t>k-th …</t>
   </si>
   <si>
@@ -878,9 +810,6 @@
   </si>
   <si>
     <t>6 151 293 14 161 163 306 228 243 245</t>
-  </si>
-  <si>
-    <t>combinations</t>
   </si>
   <si>
     <t>dfs(nums, start, path, res)</t>
@@ -891,9 +820,6 @@
   </si>
   <si>
     <t xml:space="preserve">39 40 77 78  90  254 </t>
-  </si>
-  <si>
-    <t>permutations</t>
   </si>
   <si>
     <t>46 47 267</t>
@@ -1007,9 +933,6 @@
     <t>1  28  36  217</t>
   </si>
   <si>
-    <t>in place to save space</t>
-  </si>
-  <si>
     <t>45 jump game II
 55
 339 nestedlist weight sum
@@ -1044,12 +967,6 @@
   <si>
     <t>1. cost matrix with initialization
 if cost + weight &lt; pre_cost:</t>
-  </si>
-  <si>
-    <t>207
-210
-269 course schedule
-1136 parallel courses</t>
   </si>
   <si>
     <t>489. Robot Room Cleaner</t>
@@ -1137,42 +1054,6 @@
   </si>
   <si>
     <t>348. Design Tic-Tac-Toe</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>215. Kth Largest Element in an Array</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-692 top k frequent words</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1287
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>378 k-th smallest element in a sorted matrix</t>
-    </r>
   </si>
   <si>
     <t>51 N Queen
@@ -1225,12 +1106,323 @@
   <si>
     <t>can solve anything</t>
   </si>
+  <si>
+    <t>flip(arr, i)
+flip(arr, i, j)</t>
+  </si>
+  <si>
+    <t>80 Remove Duplicates from Sorted Array II</t>
+  </si>
+  <si>
+    <t>window = hashmap</t>
+  </si>
+  <si>
+    <t>window = hashset</t>
+  </si>
+  <si>
+    <t>window = buckets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>window = monotonic stack/queue</t>
+  </si>
+  <si>
+    <t>window = a single variable</t>
+  </si>
+  <si>
+    <t>Sliding window
+1. adjust right
+2. adjust left
+3. update res</t>
+  </si>
+  <si>
+    <t>normal inorder</t>
+  </si>
+  <si>
+    <t>reverse inorder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">538 Convert BST to Greater Tree </t>
+  </si>
+  <si>
+    <t>Complete Tree</t>
+  </si>
+  <si>
+    <t>Array Tree</t>
+  </si>
+  <si>
+    <t>958. Check Completeness of a Binary Tree</t>
+  </si>
+  <si>
+    <t>Tree to Graph</t>
+  </si>
+  <si>
+    <t>742. Closest Leaf in a Binary Tree</t>
+  </si>
+  <si>
+    <t>Insertion Sort</t>
+  </si>
+  <si>
+    <t>Merge Sort</t>
+  </si>
+  <si>
+    <t>Bucket Sort</t>
+  </si>
+  <si>
+    <t>Quick Selection</t>
+  </si>
+  <si>
+    <t>Count sort</t>
+  </si>
+  <si>
+    <t>Special Sort</t>
+  </si>
+  <si>
+    <t>Combinations</t>
+  </si>
+  <si>
+    <t>Permutations</t>
+  </si>
+  <si>
+    <t>Two Pointers</t>
+  </si>
+  <si>
+    <t>In place to save space</t>
+  </si>
+  <si>
+    <t>Linear Scan</t>
+  </si>
+  <si>
+    <t>Binary Serach (left, right)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1287
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">378 k-th smallest element in a sorted matrix
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">875. Koko Eating Bananas
+774. Minimize Max Distance to Gas Station
+1011. Capacity To Ship Packages In N Days
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>410. Split Array Largest Sum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1231. Divide Chocolate</t>
+    </r>
+  </si>
+  <si>
+    <t>Intervals/meeting rooms</t>
+  </si>
+  <si>
+    <t>706 Design Hash Map</t>
+  </si>
+  <si>
+    <t>String
+(methods covered in DP and Array)</t>
+  </si>
+  <si>
+    <t>647. Palindromic Substrings</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5  Longest Palindromic Substring    </t>
+  </si>
+  <si>
+    <t>57. Insert Interval</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">252 meeting rooms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>253 meeting rooms III (max room number)</t>
+    </r>
+  </si>
+  <si>
+    <t>3, 30, 76, 159, 219, 340, 992</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>215. Kth Largest Element in an Array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+692 top k frequent words
+0973. K Closest Points to Origin</t>
+    </r>
+  </si>
+  <si>
+    <t>0239. Sliding Window Maximum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62. Unique Paths
+63, 64, 74
+120, 121
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Find number of components:
+305 Number of island II
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>323 number of connected components</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">139 word break
+279 perfect squares
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">286. Walls and Gates
+0994. Rotting Oranges
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>524. 01 matrix</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>207. Course Schedule</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+210</t>
+    </r>
+  </si>
+  <si>
+    <t>269 course schedule
+1136 parallel courses
+0444. Sequence Reconstruction</t>
+  </si>
+  <si>
+    <t>1. BFS (Kahn's Algorithm)
+2. DFS (VISITED, VISITING, NOTVISITED)</t>
+  </si>
+  <si>
+    <t>0621. Task Scheduler
+1370. Increasing Decreasing String</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/all-topological-sorts-of-a-directed-acyclic-graph/</t>
+  </si>
+  <si>
+    <t>KMP</t>
+  </si>
+  <si>
+    <t>0028. Implement strStr().py</t>
+  </si>
+  <si>
+    <t>Manacher's Algorithm</t>
+  </si>
+  <si>
+    <t>finding min-flips is NP-hard</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Catalan_number</t>
+  </si>
+  <si>
+    <t>Catalan Number</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1269,8 +1461,16 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1331,6 +1531,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1341,10 +1547,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1361,32 +1568,43 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1692,21 +1910,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G119"/>
+  <dimension ref="A1:G135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" style="5" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" style="5" customWidth="1"/>
     <col min="3" max="3" width="26.85546875" style="5" customWidth="1"/>
     <col min="4" max="4" width="43.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="40.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="43.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="38" style="1" customWidth="1"/>
     <col min="7" max="7" width="49" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -1719,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -1735,59 +1953,59 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="15" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
+      <c r="A3" s="15"/>
       <c r="C3" s="5" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="5" t="s">
-        <v>238</v>
+        <v>309</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="5" t="s">
-        <v>242</v>
+        <v>310</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="E5" s="1">
         <v>1079</v>
@@ -1796,1298 +2014,1461 @@
         <v>996</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
+    <row r="6" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>208</v>
+        <v>328</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
       <c r="B7" s="5" t="s">
-        <v>135</v>
+        <v>311</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>214</v>
+        <v>314</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
+      <c r="A8" s="15"/>
       <c r="C8" s="5" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
+      <c r="A9" s="15"/>
       <c r="C9" s="5" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="F9" s="1">
         <v>498</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
       <c r="B10" s="5" t="s">
-        <v>276</v>
+        <v>316</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
+        <v>164</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
       <c r="B11" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E14" s="1">
         <v>220</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E11" s="1" t="s">
+    </row>
+    <row r="15" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="12"/>
+    </row>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="C19" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="5" t="s">
+      <c r="D22" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C12" s="5" t="s">
+    </row>
+    <row r="23" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="D24" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D29" s="1">
+        <v>292</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="C31" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="B33" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
+      <c r="B34" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
+      <c r="B35" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
+      <c r="B38" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="13"/>
+      <c r="B39" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="13"/>
+    </row>
+    <row r="41" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="13"/>
+    </row>
+    <row r="42" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="11"/>
+      <c r="B44" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="D44" s="1">
+        <v>94</v>
+      </c>
+      <c r="E44" s="1">
+        <v>99</v>
+      </c>
+      <c r="F44" s="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="11"/>
+      <c r="C45" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="C13" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D15" s="1" t="s">
+    <row r="46" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" s="11"/>
+      <c r="B46" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="11"/>
+      <c r="B47" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="11"/>
+      <c r="B48" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="11"/>
+      <c r="B49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="11"/>
+      <c r="B50" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D50" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="11"/>
+      <c r="B51" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E51" s="1">
+        <v>212</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="11"/>
+      <c r="B52" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="11"/>
+      <c r="B53" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="11"/>
+      <c r="B54" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="11"/>
+      <c r="B55" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="11"/>
+      <c r="B56" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="11"/>
+      <c r="B59" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="11"/>
+      <c r="B60" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="11"/>
+      <c r="B61" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D61" s="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="11"/>
+      <c r="B62" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="11"/>
+      <c r="B63" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="11"/>
+      <c r="B64" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A65" s="11"/>
+      <c r="B65" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="11"/>
+      <c r="B66" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A69" s="9"/>
+      <c r="B69" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="9"/>
+      <c r="B70" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="9"/>
+      <c r="B71" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="9"/>
+      <c r="B72" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="9"/>
+      <c r="B73" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="9"/>
+      <c r="B74" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="9"/>
+      <c r="B75" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="9"/>
+      <c r="B76" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="9"/>
+      <c r="B77" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F77" s="16" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="9"/>
+      <c r="B78" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A80" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A81" s="10"/>
+      <c r="B81" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="10"/>
+      <c r="B82" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="10"/>
+      <c r="B83" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="10"/>
+      <c r="B84" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D84" s="1">
         <v>237</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="D23" s="1">
-        <v>292</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="C25" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="1">
-        <v>94</v>
-      </c>
-      <c r="E32" s="1">
-        <v>99</v>
-      </c>
-      <c r="F32" s="1">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="1">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" s="1">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-      <c r="B38" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E38" s="1">
-        <v>212</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
-      <c r="B39" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
-      <c r="B40" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="9"/>
-      <c r="B43" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="9"/>
-      <c r="B44" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="9"/>
-      <c r="B45" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D45" s="1">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
-      <c r="B46" s="5" t="s">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="10"/>
+      <c r="B85" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
-      <c r="B47" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
-      <c r="B48" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
-      <c r="B49" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="9"/>
-      <c r="B50" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
-      <c r="B53" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
-      <c r="B54" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
-      <c r="B55" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
-      <c r="B56" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="6"/>
-      <c r="B57" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E57" s="1" t="s">
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="10"/>
+      <c r="B86" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A88" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B88" s="5" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="6"/>
-      <c r="B58" s="5" t="s">
+      <c r="C88" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D88" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E88" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F88" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="6"/>
-      <c r="B59" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="6"/>
-      <c r="B60" s="5" t="s">
+    <row r="89" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A89" s="8"/>
+      <c r="B89" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C89" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="6"/>
-      <c r="B61" s="5" t="s">
+      <c r="E89" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="6"/>
-      <c r="B62" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A65" s="7"/>
-      <c r="B65" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="7"/>
-      <c r="B66" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="7"/>
-      <c r="B67" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="7"/>
-      <c r="B68" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D68" s="1">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="7"/>
-      <c r="B69" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="7"/>
-      <c r="B70" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A72" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="B72" s="5" t="s">
+      <c r="F89" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C72" s="5" t="s">
+    </row>
+    <row r="90" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A90" s="8"/>
+      <c r="B90" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D90" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E90" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F72" s="1" t="s">
+    </row>
+    <row r="91" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A91" s="8"/>
+      <c r="B91" s="5" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A73" s="8"/>
-      <c r="B73" s="5" t="s">
+      <c r="C91" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="8"/>
+      <c r="B92" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C73" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D73" s="1" t="s">
+    </row>
+    <row r="93" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="8"/>
+      <c r="B93" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="8"/>
-      <c r="B74" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="8"/>
-      <c r="B75" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="8"/>
-      <c r="B76" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="8"/>
-      <c r="B77" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="7" t="s">
+    </row>
+    <row r="95" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B95" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D95" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="7"/>
-      <c r="B80" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="7"/>
-      <c r="B81" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="7"/>
-      <c r="B82" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A83" s="7"/>
-      <c r="B83" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A84" s="7"/>
-      <c r="B84" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="7"/>
-      <c r="B85" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="7"/>
-      <c r="B86" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="7"/>
-      <c r="B87" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="57" x14ac:dyDescent="0.25">
-      <c r="A90" s="10"/>
-      <c r="B90" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A91" s="10"/>
-      <c r="B91" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="10"/>
-      <c r="B92" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="10"/>
-      <c r="B95" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="57" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="10"/>
       <c r="B96" s="5" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="10"/>
       <c r="B97" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="10"/>
+      <c r="B98" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A99" s="10"/>
+      <c r="B99" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A100" s="10"/>
+      <c r="B100" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="10"/>
+      <c r="B101" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="10"/>
+      <c r="B102" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="10"/>
+      <c r="B103" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="57" x14ac:dyDescent="0.25">
+      <c r="A106" s="14"/>
+      <c r="B106" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A107" s="14"/>
+      <c r="B107" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" s="14"/>
+      <c r="B108" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="14"/>
+      <c r="B111" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="57" x14ac:dyDescent="0.25">
+      <c r="A112" s="14"/>
+      <c r="B112" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A113" s="14"/>
+      <c r="B113" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D113" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E113" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="F113" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="11" t="s">
+    <row r="115" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A115" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B115" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C115" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="D115" s="1">
+        <v>7</v>
+      </c>
+      <c r="E115" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="7"/>
+      <c r="B116" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D116" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D99" s="1">
-        <v>7</v>
-      </c>
-      <c r="E99" s="1">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="11"/>
-      <c r="B100" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D100" s="1" t="s">
+      <c r="F116" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="7"/>
+      <c r="B117" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F100" s="1" t="s">
+      <c r="D117" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="7"/>
+      <c r="B118" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A119" s="7"/>
+      <c r="B119" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="7"/>
+      <c r="B120" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D120" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="7"/>
+      <c r="B121" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D121" s="1">
+        <v>204</v>
+      </c>
+      <c r="E121" s="1">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A122" s="7"/>
+      <c r="B122" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="7"/>
+      <c r="B123" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="7"/>
+      <c r="B124" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D124" s="1">
+        <v>43</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="7"/>
+      <c r="B125" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="7"/>
+      <c r="B126" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A127" s="7"/>
+      <c r="B127" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A128" s="7"/>
+      <c r="B128" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A129" s="7"/>
+      <c r="B129" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A130" s="7"/>
+      <c r="B130" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E130" s="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A131" s="7"/>
+      <c r="B131" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A132" s="7"/>
+      <c r="B132" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A133" s="7"/>
+      <c r="B133" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="11"/>
-      <c r="B101" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D101" s="1">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="11"/>
-      <c r="B102" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A103" s="11"/>
-      <c r="B103" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="11"/>
-      <c r="B104" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D104" s="1">
+      <c r="E133" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="11"/>
-      <c r="B105" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D105" s="1">
-        <v>204</v>
-      </c>
-      <c r="E105" s="1">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A106" s="11"/>
-      <c r="B106" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="11"/>
-      <c r="B107" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="11"/>
-      <c r="B108" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D108" s="1">
-        <v>43</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="11"/>
-      <c r="B109" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="11"/>
-      <c r="B110" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A111" s="11"/>
-      <c r="B111" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A112" s="11"/>
-      <c r="B112" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="11"/>
-      <c r="B113" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A114" s="11"/>
-      <c r="B114" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E114" s="1">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="11"/>
-      <c r="B115" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A116" s="11"/>
-      <c r="B116" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="11"/>
-      <c r="B117" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="F119" s="1" t="s">
+      <c r="B135" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="F135" s="1" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A89:A92"/>
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="A2:A29"/>
-    <mergeCell ref="A99:A117"/>
-    <mergeCell ref="A72:A77"/>
-    <mergeCell ref="A52:A62"/>
-    <mergeCell ref="A64:A70"/>
-    <mergeCell ref="A31:A40"/>
-    <mergeCell ref="A42:A50"/>
-    <mergeCell ref="A79:A87"/>
+  <mergeCells count="12">
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A105:A108"/>
+    <mergeCell ref="A110:A113"/>
+    <mergeCell ref="A2:A35"/>
+    <mergeCell ref="A115:A133"/>
+    <mergeCell ref="A88:A93"/>
+    <mergeCell ref="A68:A78"/>
+    <mergeCell ref="A80:A86"/>
+    <mergeCell ref="A43:A56"/>
+    <mergeCell ref="A58:A66"/>
+    <mergeCell ref="A95:A103"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F77" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C6:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="51.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>339</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>338</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D6" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
